--- a/experiment result/8192_0.1_40_zs40_kappa_lp.xlsx
+++ b/experiment result/8192_0.1_40_zs40_kappa_lp.xlsx
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.007310818206761757</v>
+        <v>0.007314458473074588</v>
       </c>
     </row>
     <row r="90">
